--- a/biology/Botanique/Biocontrôle/Biocontrôle.xlsx
+++ b/biology/Botanique/Biocontrôle/Biocontrôle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Biocontr%C3%B4le</t>
+          <t>Biocontrôle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le biocontrôle, selon la définition reconnue uniquement en France est « l’ensemble des méthodes de protection des végétaux qui utilisent des mécanismes naturels. Il vise à la protection des plantes en privilégiant l’utilisation de mécanismes et d’interactions qui régissent les relations entre espèces dans le milieu naturel[1] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le biocontrôle, selon la définition reconnue uniquement en France est « l’ensemble des méthodes de protection des végétaux qui utilisent des mécanismes naturels. Il vise à la protection des plantes en privilégiant l’utilisation de mécanismes et d’interactions qui régissent les relations entre espèces dans le milieu naturel ».
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Biocontr%C3%B4le</t>
+          <t>Biocontrôle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Origine et définitions du Biocontrôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « Biocontrôle » est supposé être l’abrégé du terme anglo-américain « biological control » utilisé dans différents domaines de la biologie.
 Selon la spécialisation des auteurs, il existe plusieurs définitions du biocontrôle. A l'heure actuelle, le mot « biocontrôle » est généralement employé, en France uniquement, au sens de « produits de biocontrôle », certains auteurs considère donc que l'amélioration des plantes par la génétique, ou l'usage de médiateurs chimiques tels que les phéromones, n'en font pas partie.
-Il se place comme un sous ensemble de la protection biologique intégrée qui recouvre également la lutte intégrée et la lutte biologique[2].
+Il se place comme un sous ensemble de la protection biologique intégrée qui recouvre également la lutte intégrée et la lutte biologique.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Biocontr%C3%B4le</t>
+          <t>Biocontrôle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,22 +558,94 @@
           <t>Modalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La mise en œuvre du biocontrôle doit se faire selon les principes de la protection intégrée, c'est-à-dire en privilégiant l’emploi de moyens de protection vivants ou issus du vivant, l'objectif étant de compléter la prophylaxie et la protection conventionnelle en phase de développement épidémique[3]. Cela entraîne successivement différentes actions peu dissociables :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La mise en œuvre du biocontrôle doit se faire selon les principes de la protection intégrée, c'est-à-dire en privilégiant l’emploi de moyens de protection vivants ou issus du vivant, l'objectif étant de compléter la prophylaxie et la protection conventionnelle en phase de développement épidémique. Cela entraîne successivement différentes actions peu dissociables :
 la priorité aux moyens d’action biologiques qui existent déjà dans l’agroécosystème
 le choix des cultures et des variétés tolérantes ou résistantes qui minimisent la pression des organismes nuisibles
-l'utilisation des agents de lutte vivants.
-Agents du biocontrôle
-Ces agents sont habituellement classés en quatre catégories[4] :
-les macro-organismes[5] invertébrés
+l'utilisation des agents de lutte vivants.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Biocontrôle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biocontr%C3%B4le</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Modalités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Agents du biocontrôle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ces agents sont habituellement classés en quatre catégories :
+les macro-organismes invertébrés
 les micro-organismes
-les médiateurs chimiques tels que les phéromones, les substances allélochimiques (allomones  et kairomones) et les phytophéromones[6]
+les médiateurs chimiques tels que les phéromones, les substances allélochimiques (allomones  et kairomones) et les phytophéromones
 les substances naturelles d'origine animale, végétale ou minérale
 Ces 3 dernières catégories sont des produits phytopharmaceutiques de biocontrôle et doivent bénéficier d'une Autorisation de Mise sur le Marché. Les macro-organismes non-indigènes doivent bénéficier quant-à-eux d'une Autorisation d'Entrée sur le Territoire et d'Introduction dans l'Environnement.
-La liste officielle des produits de biocontrôle, en France, est diffusée par le ministère chargé de l'agriculture dans son bulletin officiel sous forme de note de service[7].
-Stratégies de lutte
-Ces outils de biocontrôle peuvent être utilisés dans le cadre de différentes stratégies de mise en œuvre[4] : 
+La liste officielle des produits de biocontrôle, en France, est diffusée par le ministère chargé de l'agriculture dans son bulletin officiel sous forme de note de service.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Biocontrôle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biocontr%C3%B4le</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Modalités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Stratégies de lutte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ces outils de biocontrôle peuvent être utilisés dans le cadre de différentes stratégies de mise en œuvre : 
 la lutte par conservation : on cherche à sédentariser la population des agents endémiques déjà en place
 la lutte par augmentation : on augmente la cohorte de macro et micro organismes en procédant à des lâchers. L'augmentation peut également concerner la réaction de défense naturelle de la plante via des Stimulateurs de Défense des Plantes (SDP) ou éliciteurs
 la lutte par importation : on introduit et on acclimate des ennemis naturels des ravageurs. Toutefois des procédures de quarantaine doivent être observées pour garantir l'absence d'effets involontaires
@@ -567,34 +653,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Biocontr%C3%B4le</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biocontrôle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Biocontr%C3%B4le</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Développement du biocontrôle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Réglementation
-Le contexte réglementaire français, avec la Loi Labbé du 6 février 2014[8] et la loi de transition énergétique du 17 août 2015[9], vise à encourager le développement du biocontrôle comme solution pour la protection des végétaux. A ce titre les produits de biocontrôle ont une procédure d'instruction prioritaire et accélérée pour leur évaluation et leur autorisation de mise sur le marché par l'ANSES. Ces produits ont également les aménagements réglementaires suivants : 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réglementation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le contexte réglementaire français, avec la Loi Labbé du 6 février 2014 et la loi de transition énergétique du 17 août 2015, vise à encourager le développement du biocontrôle comme solution pour la protection des végétaux. A ce titre les produits de biocontrôle ont une procédure d'instruction prioritaire et accélérée pour leur évaluation et leur autorisation de mise sur le marché par l'ANSES. Ces produits ont également les aménagements réglementaires suivants : 
 exemption d'interdiction de publicité commerciale
 exemption d'obligation d'agrément pour l'application en prestation de service
 exemption de la réduction de leur utilisation dans le cadre du Plan Ecophyto
@@ -602,45 +693,116 @@
 TVA réduite
 utilisables par les collectivités même après le 1er janvier 2017 et par les particuliers après le 1er janvier 2019
 Au titre des articles L.253-5 et L.253-7 du code rural et de la pêche maritime, une note établit la liste des produits phytopharmaceutiques de biocontrôle, ainsi que la méthodologie d'élaboration de la liste.
-Recherche et développement
-Les produits de biocontrôle font l'objet de nombreux projets de recherche. En France, ils sont produits dans leur grande majorité par des PME spécialisées.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Biocontr%C3%B4le</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Biocontrôle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Biocontr%C3%B4le</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Développement du biocontrôle</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recherche et développement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits de biocontrôle font l'objet de nombreux projets de recherche. En France, ils sont produits dans leur grande majorité par des PME spécialisées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biocontrôle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biocontr%C3%B4le</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Limites actuelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les solutions proposées sont pour l'instant en deçà des promesses qu'elles ont suscitées pour différentes raisons telles que :
 le manque de connaissances sur le fonctionnement des agro-écosystèmes
 la durabilité des solutions proposées : en particulier en cas de contournement de résistance, d'arrivée de nouveaux bio-agresseurs
 les domaines sans solutions pratiques proposées tels que : la gestion des adventices, les attaques concomitantes  de plusieurs  ravageurs (pyrale + sésamie sur maïs) ou de différentes maladies (mildiou et oïdium sur vigne)
-les contraintes économiques et organisationnelles : coût en main d’œuvre, coût des solutions, aspects logistiques liés à la conservation d'organismes vivants, etc.
-Exemples de méthodes utilisant le biocontrôle
-Lutter contre le mildiou de la pomme de terre avec des spécialités à base de phosphonates. Ces phosphonates mobilisent deux modes d’action complémentaires, une action fongicide directe sur le mildiou combinée à une stimulation des défenses de la plante[10]</t>
+les contraintes économiques et organisationnelles : coût en main d’œuvre, coût des solutions, aspects logistiques liés à la conservation d'organismes vivants, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biocontrôle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biocontr%C3%B4le</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Limites actuelles</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Exemples de méthodes utilisant le biocontrôle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lutter contre le mildiou de la pomme de terre avec des spécialités à base de phosphonates. Ces phosphonates mobilisent deux modes d’action complémentaires, une action fongicide directe sur le mildiou combinée à une stimulation des défenses de la plante</t>
         </is>
       </c>
     </row>
